--- a/Entity.xlsx
+++ b/Entity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dat ThinkPad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aptech\PRJ3\GitHUB\eProject_Sem3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D76E39-AF5F-4266-AF05-690CBD718F06}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E13B1C-A245-4EB5-9820-2B1706BAB722}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{2D2F897E-E059-4933-9F80-151A7514720C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7548" xr2:uid="{2D2F897E-E059-4933-9F80-151A7514720C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -550,9 +556,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -574,6 +577,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,46 +902,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773D5221-AD06-4E9C-A4C8-331500337BD5}">
   <dimension ref="B1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="6" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.41796875" customWidth="1"/>
+    <col min="4" max="4" width="17.15625" customWidth="1"/>
+    <col min="5" max="6" width="15.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="7" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="11"/>
+      <c r="C3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
+      <c r="D3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="11"/>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
@@ -940,20 +952,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="11"/>
+      <c r="C5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
+      <c r="E5" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="11"/>
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
@@ -964,20 +976,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="11"/>
+      <c r="C7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
+      <c r="D7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="11"/>
       <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
@@ -988,47 +1000,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="12"/>
+      <c r="C9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="E9" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="12" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="7" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="11"/>
+      <c r="C13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
+      <c r="D13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="11"/>
       <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1039,20 +1051,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="5" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="11"/>
+      <c r="C15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
+      <c r="E15" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="11"/>
       <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
@@ -1063,20 +1075,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="5" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="11"/>
+      <c r="C17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
+      <c r="E17" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="11"/>
       <c r="C18" s="5" t="s">
         <v>26</v>
       </c>
@@ -1087,20 +1099,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="5" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="11"/>
+      <c r="C19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
+      <c r="E19" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B20" s="12"/>
       <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
@@ -1111,35 +1123,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="13" t="s">
+    <row r="22" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="23" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="7" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="11"/>
+      <c r="C24" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
+      <c r="D24" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="11"/>
       <c r="C25" s="5" t="s">
         <v>19</v>
       </c>
@@ -1150,20 +1162,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="5" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="11"/>
+      <c r="C26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
+      <c r="E26" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="11"/>
       <c r="C27" s="5" t="s">
         <v>22</v>
       </c>
@@ -1174,20 +1186,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="5" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="11"/>
+      <c r="C28" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
+      <c r="E28" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="11"/>
       <c r="C29" s="5" t="s">
         <v>26</v>
       </c>
@@ -1198,20 +1210,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="5" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="11"/>
+      <c r="C30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="15"/>
+      <c r="E30" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B31" s="12"/>
       <c r="C31" s="6" t="s">
         <v>32</v>
       </c>
@@ -1222,35 +1234,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
+    <row r="33" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="34" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B34" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="17"/>
-      <c r="C35" s="7" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="14"/>
+      <c r="C35" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="17"/>
+      <c r="E35" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="14"/>
       <c r="C36" s="5" t="s">
         <v>19</v>
       </c>
@@ -1261,20 +1273,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="17"/>
-      <c r="C37" s="5" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="14"/>
+      <c r="C37" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="17"/>
+      <c r="E37" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="14"/>
       <c r="C38" s="5" t="s">
         <v>22</v>
       </c>
@@ -1285,20 +1297,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="17"/>
-      <c r="C39" s="5" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="14"/>
+      <c r="C39" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="18"/>
+      <c r="E39" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B40" s="15"/>
       <c r="C40" s="6" t="s">
         <v>26</v>
       </c>
@@ -1309,35 +1321,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="13" t="s">
+    <row r="42" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="43" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B43" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="14"/>
-      <c r="C44" s="7" t="s">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="11"/>
+      <c r="C44" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="14"/>
+      <c r="D44" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="11"/>
       <c r="C45" s="5" t="s">
         <v>37</v>
       </c>
@@ -1348,20 +1360,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="14"/>
-      <c r="C46" s="5" t="s">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="11"/>
+      <c r="C46" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="14"/>
+      <c r="E46" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="11"/>
       <c r="C47" s="5" t="s">
         <v>40</v>
       </c>
@@ -1372,20 +1384,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="14"/>
-      <c r="C48" s="5" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="11"/>
+      <c r="C48" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="14"/>
+      <c r="E48" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="11"/>
       <c r="C49" s="5" t="s">
         <v>42</v>
       </c>
@@ -1396,47 +1408,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="15"/>
-      <c r="C50" s="6" t="s">
+    <row r="50" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B50" s="12"/>
+      <c r="C50" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="13" t="s">
+      <c r="E50" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="53" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B53" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="14"/>
-      <c r="C54" s="7" t="s">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="11"/>
+      <c r="C54" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="14"/>
+      <c r="D54" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="11"/>
       <c r="C55" s="5" t="s">
         <v>47</v>
       </c>
@@ -1447,20 +1459,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="14"/>
-      <c r="C56" s="5" t="s">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="11"/>
+      <c r="C56" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="14"/>
+      <c r="E56" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="11"/>
       <c r="C57" s="5" t="s">
         <v>49</v>
       </c>
@@ -1471,20 +1483,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="14"/>
-      <c r="C58" s="5" t="s">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="11"/>
+      <c r="C58" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="14"/>
+      <c r="D58" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="11"/>
       <c r="C59" s="5" t="s">
         <v>52</v>
       </c>
@@ -1495,20 +1507,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="14"/>
-      <c r="C60" s="5" t="s">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="11"/>
+      <c r="C60" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="14"/>
+      <c r="D60" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="11"/>
       <c r="C61" s="5" t="s">
         <v>54</v>
       </c>
@@ -1519,20 +1531,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="14"/>
-      <c r="C62" s="5" t="s">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="11"/>
+      <c r="C62" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="14"/>
+      <c r="D62" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="11"/>
       <c r="C63" s="5" t="s">
         <v>56</v>
       </c>
@@ -1543,20 +1555,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="14"/>
-      <c r="C64" s="5" t="s">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="11"/>
+      <c r="C64" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="14"/>
+      <c r="E64" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="11"/>
       <c r="C65" s="5" t="s">
         <v>58</v>
       </c>
@@ -1567,20 +1579,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="14"/>
-      <c r="C66" s="5" t="s">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="11"/>
+      <c r="C66" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="15"/>
+      <c r="E66" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B67" s="12"/>
       <c r="C67" s="6" t="s">
         <v>60</v>
       </c>
@@ -1591,35 +1603,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="13" t="s">
+    <row r="69" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="70" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B70" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="14"/>
-      <c r="C71" s="7" t="s">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="11"/>
+      <c r="C71" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="14"/>
+      <c r="D71" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="11"/>
       <c r="C72" s="5" t="s">
         <v>19</v>
       </c>
@@ -1630,20 +1642,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="14"/>
-      <c r="C73" s="5" t="s">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="11"/>
+      <c r="C73" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="14"/>
+      <c r="E73" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="11"/>
       <c r="C74" s="5" t="s">
         <v>24</v>
       </c>
@@ -1654,20 +1666,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="14"/>
-      <c r="C75" s="5" t="s">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="11"/>
+      <c r="C75" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="14"/>
+      <c r="E75" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="11"/>
       <c r="C76" s="5" t="s">
         <v>53</v>
       </c>
@@ -1678,47 +1690,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="15"/>
-      <c r="C77" s="6" t="s">
+    <row r="77" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B77" s="12"/>
+      <c r="C77" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="13" t="s">
+      <c r="D77" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="80" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B80" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="14"/>
-      <c r="C81" s="7" t="s">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="11"/>
+      <c r="C81" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="14"/>
+      <c r="D81" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="11"/>
       <c r="C82" s="5" t="s">
         <v>37</v>
       </c>
@@ -1729,20 +1741,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="14"/>
-      <c r="C83" s="5" t="s">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="11"/>
+      <c r="C83" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="14"/>
+      <c r="E83" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="11"/>
       <c r="C84" s="5" t="s">
         <v>41</v>
       </c>
@@ -1753,20 +1765,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="14"/>
-      <c r="C85" s="5" t="s">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="11"/>
+      <c r="C85" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="15"/>
+      <c r="E85" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B86" s="12"/>
       <c r="C86" s="6" t="s">
         <v>66</v>
       </c>
@@ -1777,35 +1789,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="13" t="s">
+    <row r="89" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="90" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B90" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="12" t="s">
+      <c r="E90" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="14"/>
-      <c r="C91" s="7" t="s">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="11"/>
+      <c r="C91" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D91" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="14"/>
+      <c r="D91" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="11"/>
       <c r="C92" s="5" t="s">
         <v>37</v>
       </c>
@@ -1816,20 +1828,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="14"/>
-      <c r="C93" s="5" t="s">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="11"/>
+      <c r="C93" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="15"/>
+      <c r="D93" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B94" s="12"/>
       <c r="C94" s="6" t="s">
         <v>70</v>
       </c>
@@ -1840,35 +1852,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="13" t="s">
+    <row r="97" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="98" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B98" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="12" t="s">
+      <c r="E98" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="14"/>
-      <c r="C99" s="7" t="s">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99" s="11"/>
+      <c r="C99" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D99" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="14"/>
+      <c r="D99" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" s="11"/>
       <c r="C100" s="5" t="s">
         <v>72</v>
       </c>
@@ -1879,20 +1891,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="14"/>
-      <c r="C101" s="5" t="s">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" s="11"/>
+      <c r="C101" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="15"/>
+      <c r="D101" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B102" s="12"/>
       <c r="C102" s="6" t="s">
         <v>43</v>
       </c>
